--- a/Parsers/TestTimes.xlsx
+++ b/Parsers/TestTimes.xlsx
@@ -25,28 +25,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Trace</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>*try test 4 on emulator with camera enabled!</t>
+    <t>1-00</t>
+  </si>
+  <si>
+    <t>1-28</t>
+  </si>
+  <si>
+    <t>1-29</t>
+  </si>
+  <si>
+    <t>1-34</t>
+  </si>
+  <si>
+    <t>5-06</t>
+  </si>
+  <si>
+    <t>4-00</t>
+  </si>
+  <si>
+    <t>2-03</t>
+  </si>
+  <si>
+    <t>1-02</t>
+  </si>
+  <si>
+    <t>1-05</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>1-16</t>
+  </si>
+  <si>
+    <t>1-17</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t>1-21</t>
+  </si>
+  <si>
+    <t>1-22</t>
+  </si>
+  <si>
+    <t>1-23</t>
+  </si>
+  <si>
+    <t>1-24</t>
+  </si>
+  <si>
+    <t>1-25</t>
+  </si>
+  <si>
+    <t>1-26</t>
+  </si>
+  <si>
+    <t>1-27</t>
+  </si>
+  <si>
+    <t>1-30</t>
+  </si>
+  <si>
+    <t>1-31</t>
+  </si>
+  <si>
+    <t>1-01</t>
+  </si>
+  <si>
+    <t>1-03</t>
+  </si>
+  <si>
+    <t>1-04</t>
+  </si>
+  <si>
+    <t>1-06</t>
+  </si>
+  <si>
+    <t>1-07</t>
+  </si>
+  <si>
+    <t>1-08</t>
+  </si>
+  <si>
+    <t>1-09</t>
+  </si>
+  <si>
+    <t>1-32</t>
+  </si>
+  <si>
+    <t>1-33</t>
+  </si>
+  <si>
+    <t>2-00</t>
+  </si>
+  <si>
+    <t>2-01</t>
+  </si>
+  <si>
+    <t>2-02</t>
+  </si>
+  <si>
+    <t>3-00</t>
+  </si>
+  <si>
+    <t>3-01</t>
+  </si>
+  <si>
+    <t>3-02</t>
+  </si>
+  <si>
+    <t>4-01</t>
+  </si>
+  <si>
+    <t>4-02</t>
+  </si>
+  <si>
+    <t>4-03</t>
+  </si>
+  <si>
+    <t>4-04</t>
+  </si>
+  <si>
+    <t>4-05</t>
+  </si>
+  <si>
+    <t>4-06</t>
+  </si>
+  <si>
+    <t>4-07</t>
+  </si>
+  <si>
+    <t>4-08</t>
+  </si>
+  <si>
+    <t>4-09</t>
+  </si>
+  <si>
+    <t>5-00</t>
+  </si>
+  <si>
+    <t>5-01</t>
+  </si>
+  <si>
+    <t>5-02</t>
+  </si>
+  <si>
+    <t>5-03</t>
+  </si>
+  <si>
+    <t>5-04</t>
+  </si>
+  <si>
+    <t>5-05</t>
+  </si>
+  <si>
+    <t>5-07</t>
+  </si>
+  <si>
+    <t>5-08</t>
+  </si>
+  <si>
+    <t>5-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="00"/>
-    <numFmt numFmtId="169" formatCode="##0.000"/>
-    <numFmt numFmtId="170" formatCode="0\-00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -87,10 +269,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,332 +553,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7.67</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7.3159999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>7.4269999999999996</v>
-      </c>
-      <c r="E5" s="2">
-        <v>7.1920000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>130.70099999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7.0570000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
-        <v>96.394000000000005</v>
-      </c>
-      <c r="I9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -710,12 +862,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,7 +877,7 @@
       <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="str">
+      <c r="C1" s="3" t="str">
         <f>"1-0"&amp;B1</f>
         <v>1-00</v>
       </c>
@@ -737,7 +889,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="3" t="str">
         <f t="shared" ref="C2:C8" si="0">"1-0"&amp;B2</f>
         <v>1-01</v>
       </c>
@@ -749,7 +901,7 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-02</v>
       </c>
@@ -761,7 +913,7 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-03</v>
       </c>
@@ -773,7 +925,7 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-04</v>
       </c>
@@ -785,7 +937,7 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-05</v>
       </c>
@@ -797,7 +949,7 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-06</v>
       </c>
@@ -806,12 +958,15 @@
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1-010</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C1:C1048576" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>